--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772510.2128504982</v>
+        <v>852502.9417674394</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5564538.631857703</v>
+        <v>5739665.97424076</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9615280.382279284</v>
+        <v>9544182.46575183</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>71.0326748940828</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>364.1046909915908</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705173</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>261.9657095888486</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472232</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>345.1247515876428</v>
+        <v>69.74721243205214</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>85.45564210298983</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>95.65910954404377</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>23.41994504831916</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.32117841962425</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>79.41653965146595</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>121.3416305177546</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>79.76470074482877</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>69.4288997747949</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>299.4782125119776</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>243.2391485592445</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>114.265617377101</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>209.7083496784902</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>9.152727013335143</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>44.49086133147602</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>50.75000975614235</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>84.69473660442891</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>256.7273523546845</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>201.6622187863186</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>6.38006817584838</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.2419515106222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>168.1158122680958</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>52.74455946606812</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>67.07295908876632</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>153.4696656457197</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>168.1158122680976</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>18.93482921065049</v>
+        <v>56.27259203479546</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>111.4702381038687</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>85.85883363046828</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>54.79134020099047</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>52.23490948285976</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>175.5903906093061</v>
+        <v>304.9199054952855</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>203.4068132192031</v>
+        <v>205.5854101330116</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>229.796569204137</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.380068175847874</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>131.5106022253276</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>188.605944229152</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>35.42676599590892</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>101.5424331687845</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>83.96546591245719</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3955,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>85.17289288835083</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>150.6852479789298</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1836.104914868961</v>
+        <v>2064.174362665548</v>
       </c>
       <c r="C2" t="n">
-        <v>1467.14239792855</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>1108.876699321799</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>723.0884467235549</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>723.0884467235549</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>2064.174362665548</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.104914868961</v>
+        <v>2064.174362665548</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966403</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155133</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.916702154262</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488065</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756915</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182536</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058064</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744476</v>
+        <v>932.4978103101005</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2015.115393042428</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568938</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676484</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815397</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
@@ -4483,19 +4485,19 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>305.8408313751036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.902695549579</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="C5" t="n">
-        <v>1114.902695549579</v>
+        <v>918.4726736852006</v>
       </c>
       <c r="D5" t="n">
-        <v>1114.902695549579</v>
+        <v>918.4726736852006</v>
       </c>
       <c r="E5" t="n">
-        <v>1114.902695549579</v>
+        <v>532.6844210869563</v>
       </c>
       <c r="F5" t="n">
-        <v>703.916790759971</v>
+        <v>121.6985162973487</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748033</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624675</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800744</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>392.159661782164</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4720,7 +4722,7 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>473.8272960668249</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2342.888901953458</v>
+        <v>141.276945881932</v>
       </c>
       <c r="C8" t="n">
-        <v>1973.926385013046</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D8" t="n">
-        <v>1615.660686406296</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E8" t="n">
-        <v>1229.872433808052</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F8" t="n">
-        <v>818.8865290184442</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G8" t="n">
-        <v>403.8140788634407</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>106.2304784722079</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993392</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993392</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>3119.628073993392</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y8" t="n">
-        <v>2729.48874201758</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.05354253334</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088492</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1698.509627919559</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C11" t="n">
-        <v>1698.509627919559</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5084,7 +5086,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.509627919559</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>774.7644039315074</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>774.7644039315074</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
         <v>624.6477645191717</v>
@@ -5197,16 +5199,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1767.333889053298</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1478.231022178942</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1223.546533973055</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
-        <v>1223.546533973055</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>995.5569830750376</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>774.7644039315074</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>708.595860545541</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X14" t="n">
-        <v>3079.909711953368</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,13 +5372,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5431,46 +5433,46 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
         <v>1722.044275313594</v>
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528559</v>
+        <v>731.321535819181</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389512</v>
+        <v>320.3356310295734</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5528,37 +5530,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539436</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W17" t="n">
-        <v>2731.767278738087</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X17" t="n">
-        <v>2731.767278738087</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>436.8275748897415</v>
+        <v>594.3085867387015</v>
       </c>
       <c r="C19" t="n">
-        <v>267.8913919618346</v>
+        <v>425.3724038107946</v>
       </c>
       <c r="D19" t="n">
-        <v>117.7747525494989</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E19" t="n">
-        <v>117.7747525494989</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672846</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.778206672846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1356.675339798489</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1356.675339798489</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W19" t="n">
-        <v>1067.258169761529</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X19" t="n">
-        <v>839.2686188635114</v>
+        <v>996.7496307124713</v>
       </c>
       <c r="Y19" t="n">
-        <v>618.4760397199813</v>
+        <v>775.9570515689412</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5849,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1640.204086189705</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C22" t="n">
-        <v>1471.267903261798</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>1471.267903261798</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>1471.267903261798</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>1471.267903261798</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>1471.267903261798</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>3150.225125372327</v>
       </c>
       <c r="T22" t="n">
-        <v>3103.839206178696</v>
+        <v>2928.458509941853</v>
       </c>
       <c r="U22" t="n">
-        <v>2814.73633930434</v>
+        <v>2639.355643067496</v>
       </c>
       <c r="V22" t="n">
-        <v>2560.051851098453</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W22" t="n">
-        <v>2270.634681061492</v>
+        <v>2095.253984824649</v>
       </c>
       <c r="X22" t="n">
-        <v>2042.645130163475</v>
+        <v>1867.264433926632</v>
       </c>
       <c r="Y22" t="n">
-        <v>1821.852551019945</v>
+        <v>1646.471854783102</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>736.8185791558158</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>325.8326743662082</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296686</v>
@@ -6017,22 +6019,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3121.906610713899</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W23" t="n">
-        <v>3121.906610713899</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X23" t="n">
-        <v>3121.906610713899</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6069,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,34 +6086,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>1640.204086189705</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>1471.267903261798</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U25" t="n">
-        <v>1424.011591242373</v>
+        <v>2814.73633930434</v>
       </c>
       <c r="V25" t="n">
-        <v>1424.011591242373</v>
+        <v>2560.051851098453</v>
       </c>
       <c r="W25" t="n">
-        <v>1424.011591242373</v>
+        <v>2270.634681061492</v>
       </c>
       <c r="X25" t="n">
-        <v>1424.011591242373</v>
+        <v>2042.645130163475</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>1821.852551019945</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6239,37 +6241,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="27">
@@ -6294,28 +6296,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>752.7622949738575</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C28" t="n">
-        <v>583.8261120459506</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D28" t="n">
-        <v>433.7094726336148</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E28" t="n">
-        <v>380.4321398396066</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>231.5882573398647</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6403,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.294548088492</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>1672.610059882605</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.192889845645</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.203338947627</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y28" t="n">
-        <v>934.4107598040972</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
@@ -6494,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3170.585957320566</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.791869823214</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>231.8553933260938</v>
+        <v>980.7518458718754</v>
       </c>
       <c r="C31" t="n">
-        <v>231.8553933260938</v>
+        <v>811.8156629439685</v>
       </c>
       <c r="D31" t="n">
-        <v>231.8553933260938</v>
+        <v>661.6990235316327</v>
       </c>
       <c r="E31" t="n">
-        <v>231.8553933260938</v>
+        <v>513.7859299492396</v>
       </c>
       <c r="F31" t="n">
-        <v>231.8553933260938</v>
+        <v>366.8959824513292</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218343</v>
@@ -6646,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696239</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260938</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1734.047335491681</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C32" t="n">
-        <v>1365.084818551269</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D32" t="n">
-        <v>1365.084818551269</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E32" t="n">
-        <v>979.296565953025</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>568.3106611634175</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>153.238211008414</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6728,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2884.252265792694</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.786507531614</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y32" t="n">
-        <v>2120.647175555803</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="33">
@@ -6783,7 +6785,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>271.9735439263277</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="C34" t="n">
-        <v>216.6287558445191</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T34" t="n">
-        <v>1735.608663915319</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U34" t="n">
-        <v>1446.505797040963</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V34" t="n">
-        <v>1191.821308835076</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W34" t="n">
-        <v>902.4041387981149</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X34" t="n">
-        <v>674.4145879000976</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="Y34" t="n">
-        <v>453.6220087565674</v>
+        <v>1761.128788747829</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1767.878520285688</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C35" t="n">
-        <v>1398.916003345277</v>
+        <v>1827.135477358711</v>
       </c>
       <c r="D35" t="n">
-        <v>1040.650304738526</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E35" t="n">
-        <v>654.862052140282</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F35" t="n">
-        <v>243.8761473506744</v>
+        <v>672.0956213641086</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6944,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792694</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.48361052258</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>2158.0178522615</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y35" t="n">
-        <v>1767.878520285688</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952861</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952861</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952861</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952861</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I37" t="n">
         <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K37" t="n">
         <v>1713.933205348673</v>
@@ -7105,40 +7107,40 @@
         <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
         <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435996</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T37" t="n">
-        <v>2928.458509941852</v>
+        <v>2926.257906998611</v>
       </c>
       <c r="U37" t="n">
-        <v>2639.355643067495</v>
+        <v>2926.257906998611</v>
       </c>
       <c r="V37" t="n">
-        <v>2384.671154861609</v>
+        <v>2671.573418792725</v>
       </c>
       <c r="W37" t="n">
-        <v>2095.253984824648</v>
+        <v>2671.573418792725</v>
       </c>
       <c r="X37" t="n">
-        <v>1867.26443392663</v>
+        <v>2671.573418792725</v>
       </c>
       <c r="Y37" t="n">
-        <v>1646.4718547831</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038042</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097631</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>1095.40402049088</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>709.6157678926361</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6298631030285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
         <v>66.5121164321834</v>
@@ -7208,16 +7210,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339056</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077976</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102164</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="39">
@@ -7254,7 +7256,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.8928126690276</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="C40" t="n">
-        <v>72.95662974112065</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>1841.205246063453</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>1841.205246063453</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W40" t="n">
-        <v>872.3234075408147</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X40" t="n">
-        <v>644.3338566427974</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.5412774992673</v>
+        <v>1989.118339645846</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2196.097994299122</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.13547735871</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="D41" t="n">
-        <v>1468.86977875196</v>
+        <v>899.070885937115</v>
       </c>
       <c r="E41" t="n">
-        <v>1083.081526153716</v>
+        <v>513.2826333388707</v>
       </c>
       <c r="F41" t="n">
-        <v>672.0956213641082</v>
+        <v>102.2967285492632</v>
       </c>
       <c r="G41" t="n">
-        <v>257.0231712091046</v>
+        <v>102.2967285492632</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>102.2967285492632</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X41" t="n">
-        <v>2972.837166339056</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2582.697834363244</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.2621142610717</v>
+        <v>785.9944709118752</v>
       </c>
       <c r="C43" t="n">
-        <v>580.3259313331648</v>
+        <v>617.0582879839683</v>
       </c>
       <c r="D43" t="n">
-        <v>580.3259313331648</v>
+        <v>466.9416485716325</v>
       </c>
       <c r="E43" t="n">
-        <v>580.3259313331648</v>
+        <v>319.0285549892394</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>319.0285549892394</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>151.3257183639584</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>970.0546934046018</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X43" t="n">
-        <v>970.0546934046018</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y43" t="n">
-        <v>749.2621142610717</v>
+        <v>967.6429357421149</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796252</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392135</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>194.542240332463</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>108.5090151927147</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G44" t="n">
         <v>108.5090151927147</v>
@@ -7643,55 +7645,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>684.4520072430315</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C46" t="n">
-        <v>532.2446860521933</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D46" t="n">
-        <v>382.1280466398575</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7837,19 +7839,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971289</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X46" t="n">
-        <v>866.1004720732712</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y46" t="n">
-        <v>866.1004720732712</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>294.2402168769248</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.44301178136323</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -22607,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.5572887477424</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181399</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>66.42295118531115</v>
+        <v>341.8004903409018</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -22841,10 +22843,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>80.85095794181436</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>190.8638887925472</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>341.8529467226884</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>2.255751353301726</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>233.3414111029283</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>306.4732379112248</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>150.1200495013743</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>111.4435131414759</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>126.4919521192246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>172.25738095949</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>201.2133759749633</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>340.0882417040779</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.1246116867363</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>94.6710382667889</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>138.3749467384726</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>105.074288727013</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>154.1943732987689</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,19 +24259,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>2.255751353301548</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>142.235404842364</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.34270184147255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>181.1251564493172</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>93.68940318050105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>77.68205582555446</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24655,10 +24657,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,13 +24736,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>97.52550631318232</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>181.1251564493154</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>147.0909790483777</v>
+        <v>109.7532162242328</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>271.2636035596119</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>208.7489307568522</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>112.4554808976374</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>235.3313350441473</v>
+        <v>106.001820158168</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25211,13 +25213,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.14213605696608</v>
+        <v>13.96353914315756</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>181.1251564493168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25448,7 +25450,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>97.9556892659979</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>142.2354048423645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>34.51520603370059</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0018201581684</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>6.150163777017035</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>43.87861485414678</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>60.78954900186359</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>296.757477183911</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>16.56157311969801</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26077,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>767692.545437847</v>
+        <v>767692.5454378471</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>844592.0519539408</v>
+        <v>767692.5454378473</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>844592.0519539409</v>
+        <v>844592.0519539408</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>844592.0519539407</v>
+        <v>844592.0519539409</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>844592.051953941</v>
+        <v>844592.0519539408</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>844592.0519539407</v>
+        <v>844592.0519539409</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>844592.0519539408</v>
+        <v>844592.0519539409</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>844592.0519539407</v>
+        <v>844592.0519539408</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321270.2120190242</v>
+      </c>
+      <c r="C2" t="n">
         <v>321270.2120190238</v>
       </c>
-      <c r="C2" t="n">
-        <v>321270.2120190237</v>
-      </c>
       <c r="D2" t="n">
+        <v>321270.2120190238</v>
+      </c>
+      <c r="E2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="F2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="E2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="F2" t="n">
-        <v>358046.9539194665</v>
-      </c>
       <c r="G2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="H2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="I2" t="n">
         <v>358046.9539194666</v>
@@ -26350,10 +26352,10 @@
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="P2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194665</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081906</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>18583.86599059036</v>
       </c>
       <c r="C4" t="n">
-        <v>18583.86599059034</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="D4" t="n">
-        <v>9770.403102091492</v>
+        <v>18583.86599059035</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091499</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091495</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.403102091495</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="K4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="L4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26500,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-905003.2099873308</v>
+        <v>-905003.2099873311</v>
       </c>
       <c r="C6" t="n">
-        <v>209748.5735885887</v>
+        <v>209748.5735885892</v>
       </c>
       <c r="D6" t="n">
-        <v>47715.46981564429</v>
+        <v>209748.5735885885</v>
       </c>
       <c r="E6" t="n">
-        <v>273970.2102559819</v>
+        <v>91897.23043879104</v>
       </c>
       <c r="F6" t="n">
         <v>273970.2102559819</v>
       </c>
       <c r="G6" t="n">
-        <v>273970.2102559818</v>
+        <v>273970.2102559819</v>
       </c>
       <c r="H6" t="n">
-        <v>273970.2102559818</v>
+        <v>273970.2102559819</v>
       </c>
       <c r="I6" t="n">
         <v>273970.2102559819</v>
       </c>
       <c r="J6" t="n">
-        <v>106365.0324459993</v>
+        <v>106365.0324459992</v>
       </c>
       <c r="K6" t="n">
         <v>273970.2102559819</v>
       </c>
       <c r="L6" t="n">
-        <v>225676.2402477912</v>
+        <v>273970.2102559819</v>
       </c>
       <c r="M6" t="n">
-        <v>273970.2102559818</v>
+        <v>226417.9444625669</v>
       </c>
       <c r="N6" t="n">
         <v>273970.2102559819</v>
       </c>
       <c r="O6" t="n">
+        <v>273970.2102559818</v>
+      </c>
+      <c r="P6" t="n">
         <v>273970.2102559819</v>
-      </c>
-      <c r="P6" t="n">
-        <v>273970.2102559818</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000392</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
@@ -26820,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31200,22 +31202,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31224,22 +31226,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233488</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33503,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33676,7 +33678,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781681</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563569</v>
@@ -33974,10 +33976,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34369,7 +34371,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003801</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K3" t="n">
-        <v>397.620397467641</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>411.6868389156663</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>559.9405577709381</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013304</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37622,10 +37624,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37786,7 +37788,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.921115830226</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38017,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865553995</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
